--- a/src/main/resources/demo.xlsx
+++ b/src/main/resources/demo.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" activeTab="2"/>
+    <workbookView windowWidth="19935" windowHeight="7785" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="question" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="2" r:id="rId2"/>
     <sheet name="url" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="game" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!#REF!</definedName>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
   <si>
     <t>title</t>
   </si>
@@ -388,6 +390,78 @@
   </si>
   <si>
     <t>backend_api_id</t>
+  </si>
+  <si>
+    <t>player1Id</t>
+  </si>
+  <si>
+    <t>player1Username</t>
+  </si>
+  <si>
+    <t>player2Id</t>
+  </si>
+  <si>
+    <t>player2Username</t>
+  </si>
+  <si>
+    <t>problemId</t>
+  </si>
+  <si>
+    <t>problemTitle</t>
+  </si>
+  <si>
+    <t>problemDifficulty</t>
+  </si>
+  <si>
+    <t>winnerId</t>
+  </si>
+  <si>
+    <t>winnerUsername</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>player1EndTime</t>
+  </si>
+  <si>
+    <t>player2EndTime</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>gameId</t>
+  </si>
+  <si>
+    <t>playerId</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>int () {\r\n}</t>
   </si>
 </sst>
 </file>
@@ -396,17 +470,29 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF718C00"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -427,22 +513,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -466,7 +538,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,7 +560,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,37 +596,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,7 +621,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,7 +629,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,6 +645,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,19 +666,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,96 +738,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -712,7 +750,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,13 +780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,25 +798,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,30 +857,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -822,6 +884,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -839,6 +910,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -846,13 +928,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,10 +965,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,16 +977,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -909,135 +995,144 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,8 +1456,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1377,209 +1472,209 @@
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="34" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>8</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="34" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="34" customHeight="1" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="34" customHeight="1" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="34" customHeight="1" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>8</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="34" customHeight="1" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="34" customHeight="1" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="34" customHeight="1" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1601,7 +1696,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1705,484 +1800,484 @@
   <sheetPr/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>100</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>101</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>100</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>102</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>100</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>103</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>100</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>104</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>100</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>105</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>100</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>106</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>100</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>107</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>100</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>200</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>201</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>200</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>202</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>200</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>203</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>200</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>204</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>200</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>205</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>200</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>206</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>200</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>207</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>200</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>300</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>301</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>300</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>302</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>300</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>303</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>300</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>304</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>300</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>305</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>300</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>306</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>300</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>400</v>
       </c>
       <c r="B25" t="s">
@@ -2198,7 +2293,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>401</v>
       </c>
       <c r="B26" t="s">
@@ -2218,7 +2313,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <v>402</v>
       </c>
       <c r="B27" t="s">
@@ -2238,7 +2333,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>403</v>
       </c>
       <c r="B28" t="s">
@@ -2258,7 +2353,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>404</v>
       </c>
       <c r="B29" t="s">
@@ -2278,7 +2373,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>405</v>
       </c>
       <c r="B30" t="s">
@@ -2298,7 +2393,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>406</v>
       </c>
       <c r="B31" t="s">
@@ -2318,7 +2413,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>407</v>
       </c>
       <c r="B32" t="s">
@@ -2338,10 +2433,10 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>500</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C33" t="s">
@@ -2352,7 +2447,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>501</v>
       </c>
       <c r="B34" t="s">
@@ -2369,7 +2464,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>502</v>
       </c>
       <c r="B35" t="s">
@@ -2386,7 +2481,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>503</v>
       </c>
       <c r="B36" t="s">
@@ -2403,7 +2498,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>504</v>
       </c>
       <c r="B37" t="s">
@@ -2420,7 +2515,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <v>505</v>
       </c>
       <c r="B38" t="s">
@@ -2437,7 +2532,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="1">
+      <c r="A39" s="4">
         <v>506</v>
       </c>
       <c r="B39" t="s">
@@ -2454,13 +2549,13 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <v>507</v>
       </c>
       <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D40" t="s">
@@ -2481,14 +2576,14 @@
   <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B57" sqref="B57:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2496,499 +2591,1268 @@
       <c r="A1" t="s">
         <v>36</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="4">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="5.375" customWidth="1"/>
+    <col min="12" max="13" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:10">
+      <c r="B2">
         <v>207</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="1">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2">
+        <v>1024</v>
+      </c>
+      <c r="I2">
+        <v>1024</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="2:10">
+      <c r="B3">
         <v>207</v>
       </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="1">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="1">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1">
-        <v>507</v>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3">
+        <v>1024</v>
+      </c>
+      <c r="I3">
+        <v>1024</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="2:10">
+      <c r="B4">
+        <v>207</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4">
+        <v>1024</v>
+      </c>
+      <c r="I4">
+        <v>1024</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="2:10">
+      <c r="B5">
+        <v>207</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5">
+        <v>1024</v>
+      </c>
+      <c r="I5">
+        <v>1024</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="2:10">
+      <c r="B6">
+        <v>207</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6">
+        <v>1024</v>
+      </c>
+      <c r="I6">
+        <v>1024</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:10">
+      <c r="B7">
+        <v>207</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7">
+        <v>1024</v>
+      </c>
+      <c r="I7">
+        <v>1024</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="2:10">
+      <c r="B8">
+        <v>207</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8">
+        <v>1024</v>
+      </c>
+      <c r="I8">
+        <v>1024</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="2:10">
+      <c r="B9">
+        <v>207</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9">
+        <v>1024</v>
+      </c>
+      <c r="I9">
+        <v>1024</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="2:10">
+      <c r="B10">
+        <v>208</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10">
+        <v>1024</v>
+      </c>
+      <c r="I10">
+        <v>1024</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="2:10">
+      <c r="B11">
+        <v>208</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11">
+        <v>1024</v>
+      </c>
+      <c r="I11">
+        <v>1024</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:10">
+      <c r="B12">
+        <v>208</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12">
+        <v>1024</v>
+      </c>
+      <c r="I12">
+        <v>1024</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="2:10">
+      <c r="B13">
+        <v>208</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13">
+        <v>1024</v>
+      </c>
+      <c r="I13">
+        <v>1024</v>
+      </c>
+      <c r="J13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="2:10">
+      <c r="B14">
+        <v>208</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14">
+        <v>1024</v>
+      </c>
+      <c r="I14">
+        <v>1024</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
